--- a/EXPORTEXCEL/Restaurant Nasi Padang Jago.xlsx
+++ b/EXPORTEXCEL/Restaurant Nasi Padang Jago.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Restaurant Name</t>
   </si>
@@ -52,28 +52,40 @@
     <t>Number Of Success</t>
   </si>
   <si>
-    <t>0 Orders</t>
-  </si>
-  <si>
-    <t>0 Seats</t>
-  </si>
-  <si>
-    <t>Rp.0</t>
+    <t>2 Orders</t>
+  </si>
+  <si>
+    <t>10 Seats</t>
+  </si>
+  <si>
+    <t>Rp.100000</t>
   </si>
   <si>
     <t>Number Of Fail</t>
   </si>
   <si>
+    <t>1 Orders</t>
+  </si>
+  <si>
+    <t>5 Seats</t>
+  </si>
+  <si>
+    <t>Rp.50000</t>
+  </si>
+  <si>
     <t>Number Of Cancel</t>
   </si>
   <si>
-    <t>2 Orders</t>
-  </si>
-  <si>
-    <t>10 Seats</t>
-  </si>
-  <si>
-    <t>Rp.40000</t>
+    <t>Rp.20000</t>
+  </si>
+  <si>
+    <t>4 Orders</t>
+  </si>
+  <si>
+    <t>20 Seats</t>
+  </si>
+  <si>
+    <t>Rp.170000</t>
   </si>
   <si>
     <t>Number Of Rejected</t>
@@ -485,27 +497,27 @@
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -513,25 +525,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12"/>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
